--- a/01-Requirement/Evaluation Teacher.xlsx
+++ b/01-Requirement/Evaluation Teacher.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Copy\wamp\www\ume-system\01-Requirement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="315" windowWidth="15135" windowHeight="7830" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Result" sheetId="5" r:id="rId2"/>
     <sheet name="Total Score" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -719,14 +724,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,6 +782,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2501,7 +2509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2536,7 +2544,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2747,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2758,74 +2766,74 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="23.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="23.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -2878,14 +2886,14 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="11" t="s">
@@ -2928,14 +2936,14 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -2978,14 +2986,14 @@
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="24.75" customHeight="1">
       <c r="A29" s="11" t="s">
@@ -3043,16 +3051,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.11" top="0.19" bottom="0.03" header="0.15" footer="0.16"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3065,7 +3073,7 @@
   <dimension ref="A6:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3314,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3326,44 +3334,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="23.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="23.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1">
       <c r="A10" s="38" t="s">
